--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -24,12 +24,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Error</t>
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurona </t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Intermedia 1</t>
+  </si>
+  <si>
+    <t>Intermedia 2</t>
+  </si>
+  <si>
+    <t>Calculos</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>Johnatan Meoño</t>
+  </si>
+  <si>
+    <t>Statistical Learning II</t>
   </si>
 </sst>
 </file>
@@ -53,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -141,11 +168,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +232,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,13 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="C2:F34"/>
+  <dimension ref="C2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C2" sqref="C2:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,156 +550,221 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="2">
+      <c r="H6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
         <v>-0.23</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
-        <f>SUMPRODUCT(C3:C4,D3:D4)</f>
+      <c r="E7" s="4">
+        <f>SUMPRODUCT(C7:C8,D7:D8)</f>
         <v>8.31</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="5">
+      <c r="H7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
         <v>0.9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D8" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
+      <c r="E8" s="7"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="12">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="H9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11">
+        <f>E7</f>
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
         <v>0.22</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
-        <f>SUMPRODUCT(C6:C7,D6:D7)</f>
+      <c r="E10" s="7">
+        <f>SUMPRODUCT(C10:C11,D10:D11)</f>
         <v>9.4600000000000009</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="5">
+      <c r="H10" s="16"/>
+      <c r="I10" s="6">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <f>E10</f>
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
         <v>0.88</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="5">
+      <c r="E11" s="7"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="12">
+        <v>3</v>
+      </c>
+      <c r="J11" s="12">
+        <f>E13</f>
+        <v>-1.69</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="H12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <f>E16</f>
+        <v>0.66550000000000065</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
         <v>0.77</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="7">
-        <f>SUMPRODUCT(C9:C10,D9:D10)</f>
+      <c r="E13" s="7">
+        <f>SUMPRODUCT(C13:C14,D13:D14)</f>
         <v>-1.69</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
+      <c r="H13" s="16"/>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13" s="6">
+        <f>E20</f>
+        <v>9.5641999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="8">
         <v>-0.4</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D14" s="9">
         <v>10</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+      <c r="E14" s="10"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="12">
+        <v>3</v>
+      </c>
+      <c r="J14" s="12">
+        <f>E24</f>
+        <v>9.0408000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
         <v>-0.3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D16" s="3">
         <v>8.31</v>
       </c>
-      <c r="E12" s="4">
-        <f>SUMPRODUCT(C12:C14,D12:D14)</f>
+      <c r="E16" s="4">
+        <f>SUMPRODUCT(C16:C18,D16:D18)</f>
         <v>0.66550000000000065</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F16" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="D13" s="6">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="D14" s="6">
-        <v>-1.69</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="D16" s="6">
-        <v>8.31</v>
-      </c>
-      <c r="E16" s="7">
-        <f>SUMPRODUCT(C16:C18,D16:D18)</f>
-        <v>9.5641999999999996</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.45</v>
       </c>
       <c r="D17" s="6">
         <v>9.4600000000000009</v>
@@ -634,7 +773,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
-        <v>0.57999999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="D18" s="6">
         <v>-1.69</v>
@@ -648,150 +787,201 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
-        <v>0.45</v>
+        <v>0.62</v>
       </c>
       <c r="D20" s="6">
         <v>8.31</v>
       </c>
       <c r="E20" s="7">
         <f>SUMPRODUCT(C20:C22,D20:D22)</f>
-        <v>9.0408000000000008</v>
+        <v>9.5641999999999996</v>
       </c>
       <c r="F20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="5">
-        <v>0.48</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D21" s="6">
         <v>9.4600000000000009</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8">
-        <v>-0.45</v>
-      </c>
-      <c r="D22" s="9">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D22" s="6">
         <v>-1.69</v>
       </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.66550000000000065</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="C24" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8.31</v>
+      </c>
+      <c r="E24" s="7">
         <f>SUMPRODUCT(C24:C26,D24:D26)</f>
-        <v>8.1802940000000017</v>
+        <v>9.0408000000000008</v>
       </c>
       <c r="F24" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="D25" s="6">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="8">
+        <v>-0.45</v>
+      </c>
+      <c r="D26" s="9">
+        <v>-1.69</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="28" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.66550000000000065</v>
+      </c>
+      <c r="E28" s="4">
+        <f>SUMPRODUCT(C28:C30,D28:D30)</f>
+        <v>8.1802940000000017</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="5">
         <v>0.22</v>
-      </c>
-      <c r="D25" s="6">
-        <v>9.5641999999999996</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="D26" s="6">
-        <v>9.0408000000000008</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0.66550000000000065</v>
-      </c>
-      <c r="E28" s="7">
-        <f>SUMPRODUCT(C28:C30,D28:D30)</f>
-        <v>1.7479100000000019</v>
-      </c>
-      <c r="F28" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="5">
-        <v>-0.7</v>
       </c>
       <c r="D29" s="6">
         <v>9.5641999999999996</v>
       </c>
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="D30" s="6">
         <v>9.0408000000000008</v>
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="D32" s="6">
         <v>0.66550000000000065</v>
       </c>
       <c r="E32" s="7">
         <f>SUMPRODUCT(C32:C34,D32:D34)</f>
-        <v>9.3039120000000004</v>
+        <v>1.7479100000000019</v>
       </c>
       <c r="F32" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="C33" s="5">
-        <v>0.65</v>
+        <v>-0.7</v>
       </c>
       <c r="D33" s="6">
         <v>9.5641999999999996</v>
       </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="8">
+    <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D34" s="6">
+        <v>9.0408000000000008</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.66550000000000065</v>
+      </c>
+      <c r="E36" s="7">
+        <f>SUMPRODUCT(C36:C38,D36:D38)</f>
+        <v>9.3039120000000004</v>
+      </c>
+      <c r="F36" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="D37" s="6">
+        <v>9.5641999999999996</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="3:6" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="8">
         <v>0.34</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D38" s="9">
         <v>9.0408000000000008</v>
       </c>
-      <c r="E34" s="10"/>
-    </row>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="120" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>